--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521848.8708903085</v>
+        <v>-523736.4524067104</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>239.8661710610649</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>91.90342426864161</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.28704139029322</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>100.5554366672285</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>193.1940619197922</v>
       </c>
       <c r="I5" t="n">
-        <v>150.4839922477829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>117.1365314849862</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>120.1902984100937</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>390.6174744875169</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>235.3393072340365</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.6386299168222</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>4.607334289833588</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>137.9604981520648</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>209.7723097876322</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>141.2807981293842</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>165.1182835606709</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.373577816620156</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>122.285603625497</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>192.6211591710422</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>194.568623465508</v>
+        <v>210.9685212521341</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>89.15058872626261</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437392</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389788</v>
+        <v>81.41484040883311</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571465</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523546</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>219.4916170751303</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898698</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4316,7 +4316,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2373.111172177389</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2373.111172177389</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2373.111172177389</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2373.111172177389</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1999.645413916309</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.506081940498</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.4549451025302</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>245.4549451025302</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>245.4549451025302</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>245.4549451025302</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>245.4549451025302</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>76.45514484086266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>76.45514484086266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>597.1409169113407</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.4549451025302</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1327.013560149308</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="C5" t="n">
-        <v>958.0510432088963</v>
+        <v>1078.038211802484</v>
       </c>
       <c r="D5" t="n">
-        <v>958.0510432088963</v>
+        <v>1078.038211802484</v>
       </c>
       <c r="E5" t="n">
-        <v>958.0510432088963</v>
+        <v>1078.038211802484</v>
       </c>
       <c r="F5" t="n">
-        <v>951.1055424596929</v>
+        <v>667.0523070128768</v>
       </c>
       <c r="G5" t="n">
-        <v>533.1417343578797</v>
+        <v>249.0884989110637</v>
       </c>
       <c r="H5" t="n">
-        <v>205.9470143938826</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.013560149308</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.9169416640007</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C7" t="n">
-        <v>368.9169416640007</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D7" t="n">
-        <v>368.9169416640007</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>221.0038480816075</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>221.0038480816075</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>221.0038480816075</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.48636361053</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.523846670119</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.258148063368</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>866.469895465124</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674652</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>352.67413830922</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>352.67413830922</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>352.67413830922</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,49 +5042,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5136,7 +5136,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>729.1316371486756</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5197,22 +5197,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1359.562232020463</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1359.562232020463</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1359.562232020463</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V13" t="n">
-        <v>1359.562232020463</v>
+        <v>1087.105038465745</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.562232020463</v>
+        <v>797.6878684287844</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.572681122445</v>
+        <v>797.6878684287844</v>
       </c>
       <c r="Y13" t="n">
-        <v>910.7801019789152</v>
+        <v>576.8952892852543</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.607977814708</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253976</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383756</v>
+        <v>536.9315552688998</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>536.9315552688998</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>386.8149158565641</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5440,16 +5440,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1332.130125547123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.130125547123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.712955510163</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X16" t="n">
-        <v>814.7234046121455</v>
+        <v>757.72413441243</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.9308254686154</v>
+        <v>536.9315552688998</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.135607213031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>657.1994242851241</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727884</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.231782352015</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.242231453998</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y19" t="n">
-        <v>1007.784072043271</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5762,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>834.5937666237584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>665.6575836958515</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>515.5409442835157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6278507011226</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>220.7379032032121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>220.7379032032121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1304.349443112405</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.242231453998</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.242231453998</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5993,40 +5993,40 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1302.38230746143</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V25" t="n">
-        <v>1302.38230746143</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>1012.965137424469</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>784.9755865264517</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,19 +6309,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.3210135240261</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>337.3848305961192</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>187.2681911837834</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>187.2681911837834</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>187.2681911837834</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>187.2681911837834</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>187.2681911837834</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799364</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655735</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>727.1135926675562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.3210135240261</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430007</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430007</v>
+        <v>326.3571123076821</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430007</v>
+        <v>326.3571123076821</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430007</v>
+        <v>326.3571123076821</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264614</v>
+        <v>235.2280300911425</v>
       </c>
       <c r="G31" t="n">
-        <v>247.647960727653</v>
+        <v>235.2280300911425</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962064</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056077</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1346.91942605078</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1147.995803126264</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>914.3394983706748</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>742.1108127540285</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>577.0790988918694</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,28 +6856,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504513</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7740,13 +7740,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>392.1113620226448</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367537</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>59.96031183153841</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,13 +23473,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238337</v>
+        <v>42.36533353619581</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>5.153164517184979</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>121.1190688379065</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.2110755354746</v>
+        <v>103.0576765518774</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>26.62822474203911</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>5.299650812561026</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>91.66872893306933</v>
+        <v>75.26883114644323</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>21.26865673800937</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965503</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801184</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12.29573133014595</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>11.54247869488977</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1214383.181099411</v>
+        <v>1214383.18109941</v>
       </c>
     </row>
     <row r="12">
@@ -26320,7 +26320,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
         <v>215065.9828557399</v>
@@ -26329,31 +26329,31 @@
         <v>215065.9828557399</v>
       </c>
       <c r="H2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="I2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
         <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284586</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086667</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284588</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26442,7 +26442,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563571</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
@@ -26454,7 +26454,7 @@
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>-13847.54960195412</v>
       </c>
       <c r="D6" t="n">
-        <v>-13847.5496019541</v>
+        <v>-13847.54960195403</v>
       </c>
       <c r="E6" t="n">
-        <v>-417127.0491913118</v>
+        <v>-417224.5083172841</v>
       </c>
       <c r="F6" t="n">
-        <v>108032.9872855842</v>
+        <v>107935.528159612</v>
       </c>
       <c r="G6" t="n">
-        <v>108032.9872855842</v>
+        <v>107935.528159612</v>
       </c>
       <c r="H6" t="n">
-        <v>108032.9872855842</v>
+        <v>107935.5281596119</v>
       </c>
       <c r="I6" t="n">
-        <v>108032.9872855841</v>
+        <v>107935.528159612</v>
       </c>
       <c r="J6" t="n">
-        <v>-68390.23190700886</v>
+        <v>-68487.69103298099</v>
       </c>
       <c r="K6" t="n">
-        <v>49751.06957119418</v>
+        <v>49732.57583326014</v>
       </c>
       <c r="L6" t="n">
-        <v>80264.01722902646</v>
+        <v>80264.01722902629</v>
       </c>
       <c r="M6" t="n">
-        <v>-44194.09120394397</v>
+        <v>-44194.09120394402</v>
       </c>
       <c r="N6" t="n">
-        <v>90606.92402989311</v>
+        <v>90606.92402989318</v>
       </c>
       <c r="O6" t="n">
-        <v>90606.92402989318</v>
+        <v>90606.9240298931</v>
       </c>
       <c r="P6" t="n">
-        <v>46444.31872704728</v>
+        <v>46444.31872704746</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,31 +26738,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108334</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>142.8676706024156</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>124.5448960890162</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>112.678580402045</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>111.5901022827904</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>130.7287108445649</v>
       </c>
       <c r="I5" t="n">
-        <v>1.447323997078314</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>31.47894153322612</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>35.98059043170149</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>16.25857125419458</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>150.8986314220171</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.19335026511513</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>140.8137137330976</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-5.69950013111035e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>702.5357390731109</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412286</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043209</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
